--- a/Portfolio/effizienz_tabelle.xlsx
+++ b/Portfolio/effizienz_tabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwein\Documents\GitHub\EFI\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8F1F9D-DB36-4D39-ABA4-D6739079156E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3982BD37-941B-4988-B4FC-DE57002E267F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18060" windowHeight="9530" xr2:uid="{362BBB06-4FA3-40E8-AF72-36A04FA32FD8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{362BBB06-4FA3-40E8-AF72-36A04FA32FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>depth</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Drachenkurve</t>
+  </si>
+  <si>
+    <t>log4(moveCount)</t>
+  </si>
+  <si>
+    <t>log3(moveCount)</t>
+  </si>
+  <si>
+    <t>duration/moveCount</t>
   </si>
 </sst>
 </file>
@@ -95,9 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -114,6 +124,1066 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Schneeflocke</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>depth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$7:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D6C-43D7-AA55-5741C0C939E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$7:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>813.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>4824.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>29673.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>97133</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>398885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D6C-43D7-AA55-5741C0C939E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>moveCount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$E$7:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0D6C-43D7-AA55-5741C0C939E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="578773816"/>
+        <c:axId val="578774456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="578773816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578774456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="578774456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578773816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60F8A0E-B6FF-4B1C-9DB9-A49376B15ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,29 +1483,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A3CE31-6E04-4DE6-B48E-EE2396E24816}">
-  <dimension ref="C4:M15"/>
+  <dimension ref="C4:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>4</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,26 +1516,45 @@
       <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="R6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C7">
         <v>0</v>
       </c>
@@ -474,14 +1564,50 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="F7">
+        <f>LOG(E7,4)</f>
         <v>0</v>
       </c>
+      <c r="G7" s="2">
+        <f>D7/E7</f>
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>29</v>
+      </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f>LOG(K7,3)</f>
         <v>0</v>
       </c>
+      <c r="M7" s="2">
+        <f>J7/K7</f>
+        <v>29</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <f>LOG(Q7,2)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <f>P7/Q7</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C8">
         <v>1</v>
       </c>
@@ -492,14 +1618,50 @@
       <c r="E8">
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="F8">
+        <f t="shared" ref="F8:F15" si="0">LOG(E8,4)</f>
         <v>1</v>
       </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:G15" si="1">D8/E8</f>
+        <v>7.25</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>33</v>
+      </c>
       <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L15" si="2">LOG(K8,3)</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" ref="M7:M15" si="3">J8/K8</f>
+        <v>11</v>
+      </c>
+      <c r="O8">
         <v>2</v>
       </c>
+      <c r="P8">
+        <v>24</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ref="R8:R14" si="4">LOG(Q8,2)</f>
+        <v>2</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" ref="S8:S14" si="5">P8/Q8</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C9">
         <v>2</v>
       </c>
@@ -510,14 +1672,50 @@
       <c r="E9">
         <v>16</v>
       </c>
-      <c r="G9">
+      <c r="F9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>4.6875</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>59</v>
+      </c>
       <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="3"/>
+        <v>6.5555555555555554</v>
+      </c>
+      <c r="O9">
         <v>4</v>
       </c>
+      <c r="P9">
+        <v>80</v>
+      </c>
+      <c r="Q9">
+        <v>16</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C10">
         <v>3</v>
       </c>
@@ -528,18 +1726,54 @@
       <c r="E10">
         <v>64</v>
       </c>
-      <c r="G10">
+      <c r="F10">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>3.734375</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>126</v>
+      </c>
       <c r="K10">
+        <v>27</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="3"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="O10">
         <v>6</v>
       </c>
+      <c r="P10">
+        <v>225</v>
+      </c>
+      <c r="Q10">
+        <v>64</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="5"/>
+        <v>3.515625</v>
+      </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <f>2441/3</f>
         <v>813.66666666666663</v>
       </c>
@@ -547,18 +1781,54 @@
         <f>768/3</f>
         <v>256</v>
       </c>
-      <c r="G11">
+      <c r="F11">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1783854166666665</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>317</v>
+      </c>
       <c r="K11">
+        <v>81</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="3"/>
+        <v>3.9135802469135803</v>
+      </c>
+      <c r="O11">
         <v>8</v>
       </c>
+      <c r="P11">
+        <v>659</v>
+      </c>
+      <c r="Q11">
+        <v>256</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="5"/>
+        <v>2.57421875</v>
+      </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <f>14473/3</f>
         <v>4824.333333333333</v>
       </c>
@@ -566,37 +1836,109 @@
         <f>E11*4</f>
         <v>1024</v>
       </c>
-      <c r="G12">
+      <c r="F12">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>4.711263020833333</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>945</v>
+      </c>
       <c r="K12">
+        <v>243</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="3"/>
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="O12">
         <v>10</v>
       </c>
+      <c r="P12">
+        <v>2600</v>
+      </c>
+      <c r="Q12">
+        <v>1024</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="5"/>
+        <v>2.5390625</v>
+      </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <f>89020/3</f>
         <v>29673.333333333332</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E15" si="0">E12*4</f>
+        <f t="shared" ref="E13:E15" si="6">E12*4</f>
         <v>4096</v>
       </c>
-      <c r="G13">
+      <c r="F13">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>7.244466145833333</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>2278</v>
+      </c>
       <c r="K13">
+        <v>729</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="3"/>
+        <v>3.1248285322359397</v>
+      </c>
+      <c r="O13">
         <v>12</v>
       </c>
+      <c r="P13">
+        <v>10346</v>
+      </c>
+      <c r="Q13">
+        <v>4096</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="5"/>
+        <v>2.52587890625</v>
+      </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>7</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <f>291399/3</f>
         <v>97133</v>
       </c>
@@ -604,30 +1946,89 @@
         <f>49152/3</f>
         <v>16384</v>
       </c>
-      <c r="G14">
+      <c r="F14">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>5.92852783203125</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>10574</v>
+      </c>
       <c r="K14">
+        <v>2187</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="3"/>
+        <v>4.8349336991312297</v>
+      </c>
+      <c r="O14">
         <v>14</v>
       </c>
+      <c r="P14">
+        <v>86928</v>
+      </c>
+      <c r="Q14">
+        <v>16384</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" si="5"/>
+        <v>5.3056640625</v>
+      </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>398885</v>
       </c>
       <c r="E15">
+        <f t="shared" si="6"/>
+        <v>65536</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
-        <v>65536</v>
-      </c>
-      <c r="G15">
         <v>8</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>6.0865020751953125</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>48256</v>
+      </c>
+      <c r="K15">
+        <v>6561</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="3"/>
+        <v>7.3549763755525071</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Portfolio/effizienz_tabelle.xlsx
+++ b/Portfolio/effizienz_tabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwein\Documents\GitHub\EFI\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3982BD37-941B-4988-B4FC-DE57002E267F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ED2472-2568-4986-BA0F-84EEA4BE9BCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{362BBB06-4FA3-40E8-AF72-36A04FA32FD8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>depth</t>
   </si>
@@ -62,11 +62,26 @@
   <si>
     <t>duration/moveCount</t>
   </si>
+  <si>
+    <t>log4(duration)</t>
+  </si>
+  <si>
+    <t>log2(moveCount)</t>
+  </si>
+  <si>
+    <t>log3(duration)</t>
+  </si>
+  <si>
+    <t>log2(duration)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,10 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1155,7 +1171,7 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
@@ -1483,30 +1499,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A3CE31-6E04-4DE6-B48E-EE2396E24816}">
-  <dimension ref="C4:S15"/>
+  <dimension ref="C4:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="71" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="6" max="7" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>4</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1520,41 +1536,50 @@
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C7">
         <v>0</v>
       </c>
@@ -1568,46 +1593,58 @@
         <f>LOG(E7,4)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
+        <f>LOG(D7,4)</f>
+        <v>2.1609640474436813</v>
+      </c>
+      <c r="H7" s="2">
         <f>D7/E7</f>
         <v>20</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>29</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="L7">
+      <c r="M7">
+        <f>LOG(L7,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
         <f>LOG(K7,3)</f>
+        <v>3.0650447521106625</v>
+      </c>
+      <c r="O7" s="2">
+        <f>K7/L7</f>
+        <v>29</v>
+      </c>
+      <c r="Q7">
         <v>0</v>
       </c>
-      <c r="M7" s="2">
-        <f>J7/K7</f>
-        <v>29</v>
-      </c>
-      <c r="O7">
+      <c r="R7">
+        <v>12</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <f>LOG(S7,2)</f>
         <v>0</v>
       </c>
-      <c r="P7">
+      <c r="U7" s="3">
+        <f>LOG(R7,2)</f>
+        <v>3.5849625007211565</v>
+      </c>
+      <c r="V7" s="2">
+        <f>R7/S7</f>
         <v>12</v>
       </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <f>LOG(Q7,2)</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <f>P7/Q7</f>
-        <v>12</v>
-      </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C8">
         <v>1</v>
       </c>
@@ -1622,46 +1659,58 @@
         <f t="shared" ref="F8:F15" si="0">LOG(E8,4)</f>
         <v>1</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" ref="G8:G15" si="1">D8/E8</f>
+      <c r="G8" s="3">
+        <f t="shared" ref="G8:G15" si="1">LOG(D8,4)</f>
+        <v>2.4289904975637864</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ref="H8:H15" si="2">D8/E8</f>
         <v>7.25</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>33</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>3</v>
       </c>
-      <c r="L8">
-        <f t="shared" ref="L8:L15" si="2">LOG(K8,3)</f>
+      <c r="M8">
+        <f t="shared" ref="M8:M15" si="3">LOG(L8,3)</f>
         <v>1</v>
       </c>
-      <c r="M8" s="2">
-        <f t="shared" ref="M7:M15" si="3">J8/K8</f>
+      <c r="N8" s="3">
+        <f t="shared" ref="N8:N15" si="4">LOG(K8,3)</f>
+        <v>3.1826583386441376</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" ref="O7:O15" si="5">K8/L8</f>
         <v>11</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>2</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>24</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>4</v>
       </c>
-      <c r="R8">
-        <f t="shared" ref="R8:R14" si="4">LOG(Q8,2)</f>
+      <c r="T8">
+        <f t="shared" ref="T8:T14" si="6">LOG(S8,2)</f>
         <v>2</v>
       </c>
-      <c r="S8" s="2">
-        <f t="shared" ref="S8:S14" si="5">P8/Q8</f>
+      <c r="U8" s="3">
+        <f t="shared" ref="U8:U14" si="7">LOG(R8,2)</f>
+        <v>4.584962500721157</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" ref="V8:V14" si="8">R8/S8</f>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C9">
         <v>2</v>
       </c>
@@ -1676,46 +1725,58 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
+        <v>3.1144093452479402</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
         <v>4.6875</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>59</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>9</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="2"/>
+      <c r="M9">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M9" s="2">
-        <f t="shared" si="3"/>
+      <c r="N9" s="3">
+        <f t="shared" si="4"/>
+        <v>3.7115345294827136</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="5"/>
         <v>6.5555555555555554</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>4</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>80</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>16</v>
       </c>
-      <c r="R9">
-        <f t="shared" si="4"/>
+      <c r="T9">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="S9" s="2">
-        <f t="shared" si="5"/>
+      <c r="U9" s="3">
+        <f t="shared" si="7"/>
+        <v>6.3219280948873617</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C10">
         <v>3</v>
       </c>
@@ -1730,50 +1791,62 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
+        <v>3.9504334039903748</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
         <v>3.734375</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>3</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>126</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>27</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="2"/>
+      <c r="M10">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M10" s="2">
-        <f t="shared" si="3"/>
+      <c r="N10" s="3">
+        <f t="shared" si="4"/>
+        <v>4.4021735027328797</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="5"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>6</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>225</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>64</v>
       </c>
-      <c r="R10">
-        <f t="shared" si="4"/>
+      <c r="T10">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="S10" s="2">
-        <f t="shared" si="5"/>
+      <c r="U10" s="3">
+        <f t="shared" si="7"/>
+        <v>7.8137811912170374</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" si="8"/>
         <v>3.515625</v>
       </c>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <f>2441/3</f>
         <v>813.66666666666663</v>
       </c>
@@ -1785,50 +1858,62 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <f t="shared" si="1"/>
+        <v>4.8341470395299986</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
         <v>3.1783854166666665</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>4</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>317</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>81</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="2"/>
+      <c r="M11">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M11" s="2">
-        <f t="shared" si="3"/>
+      <c r="N11" s="3">
+        <f t="shared" si="4"/>
+        <v>5.2419782968739774</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="5"/>
         <v>3.9135802469135803</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>8</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>659</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>256</v>
       </c>
-      <c r="R11">
-        <f t="shared" si="4"/>
+      <c r="T11">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="S11" s="2">
-        <f t="shared" si="5"/>
+      <c r="U11" s="3">
+        <f t="shared" si="7"/>
+        <v>9.3641346550080513</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" si="8"/>
         <v>2.57421875</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <f>14473/3</f>
         <v>4824.333333333333</v>
       </c>
@@ -1840,105 +1925,129 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <f t="shared" si="1"/>
+        <v>6.1180569385840542</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
         <v>4.711263020833333</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>5</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>945</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>243</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="2"/>
+      <c r="M12">
+        <f t="shared" si="3"/>
         <v>4.9999999999999991</v>
       </c>
-      <c r="M12" s="2">
-        <f t="shared" si="3"/>
+      <c r="N12" s="3">
+        <f t="shared" si="4"/>
+        <v>6.236217269879349</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="5"/>
         <v>3.8888888888888888</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>10</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>2600</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>1024</v>
       </c>
-      <c r="R12">
-        <f t="shared" si="4"/>
+      <c r="T12">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="S12" s="2">
-        <f t="shared" si="5"/>
+      <c r="U12" s="3">
+        <f t="shared" si="7"/>
+        <v>11.344295907915818</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" si="8"/>
         <v>2.5390625</v>
       </c>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <f>89020/3</f>
         <v>29673.333333333332</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E15" si="6">E12*4</f>
+        <f t="shared" ref="E13:E15" si="9">E12*4</f>
         <v>4096</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
+        <v>7.4284396898092373</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
         <v>7.244466145833333</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>6</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2278</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>729</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="2"/>
+      <c r="M13">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="M13" s="2">
-        <f t="shared" si="3"/>
+      <c r="N13" s="3">
+        <f t="shared" si="4"/>
+        <v>7.0371078348120264</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="5"/>
         <v>3.1248285322359397</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>12</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>10346</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>4096</v>
       </c>
-      <c r="R13">
-        <f t="shared" si="4"/>
+      <c r="T13">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="S13" s="2">
-        <f t="shared" si="5"/>
+      <c r="U13" s="3">
+        <f t="shared" si="7"/>
+        <v>13.336785476203755</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" si="8"/>
         <v>2.52587890625</v>
       </c>
     </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>7</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <f>291399/3</f>
         <v>97133</v>
       </c>
@@ -1950,81 +2059,102 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
+        <v>8.2838369501000226</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="2"/>
         <v>5.92852783203125</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>7</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>10574</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2187</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="2"/>
+      <c r="M14">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="M14" s="2">
-        <f t="shared" si="3"/>
+      <c r="N14" s="3">
+        <f t="shared" si="4"/>
+        <v>8.4344163381142518</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="5"/>
         <v>4.8349336991312297</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>14</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>86928</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>16384</v>
       </c>
-      <c r="R14">
-        <f t="shared" si="4"/>
+      <c r="T14">
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="S14" s="2">
-        <f t="shared" si="5"/>
+      <c r="U14" s="3">
+        <f t="shared" si="7"/>
+        <v>16.407533331671324</v>
+      </c>
+      <c r="V14" s="2">
+        <f t="shared" si="8"/>
         <v>5.3056640625</v>
       </c>
     </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>398885</v>
       </c>
       <c r="E15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>65536</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
+        <v>9.3028066732948194</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="2"/>
         <v>6.0865020751953125</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>8</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>48256</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>6561</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="2"/>
+      <c r="M15">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="M15" s="2">
-        <f t="shared" si="3"/>
+      <c r="N15" s="3">
+        <f t="shared" si="4"/>
+        <v>9.8162705465836577</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="5"/>
         <v>7.3549763755525071</v>
       </c>
+      <c r="U15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Portfolio/effizienz_tabelle.xlsx
+++ b/Portfolio/effizienz_tabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwein\Documents\GitHub\EFI\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ED2472-2568-4986-BA0F-84EEA4BE9BCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC157443-7350-4ECB-A964-9AFC4970C526}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{362BBB06-4FA3-40E8-AF72-36A04FA32FD8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>depth</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>log2(duration)</t>
+  </si>
+  <si>
+    <t>duration (ms)</t>
   </si>
 </sst>
 </file>
@@ -293,7 +296,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>duration</c:v>
+                  <c:v>duration (ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1501,14 +1504,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A3CE31-6E04-4DE6-B48E-EE2396E24816}">
   <dimension ref="C4:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="71" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="86" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:22" x14ac:dyDescent="0.35">
@@ -1527,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>8</v>
@@ -1589,13 +1593,13 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
+        <f>LOG(D7,4)</f>
+        <v>2.1609640474436813</v>
+      </c>
+      <c r="G7">
         <f>LOG(E7,4)</f>
         <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <f>LOG(D7,4)</f>
-        <v>2.1609640474436813</v>
       </c>
       <c r="H7" s="2">
         <f>D7/E7</f>
@@ -1655,16 +1659,16 @@
       <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8">
-        <f t="shared" ref="F8:F15" si="0">LOG(E8,4)</f>
+      <c r="F8" s="3">
+        <f>LOG(D8,4)</f>
+        <v>2.4289904975637864</v>
+      </c>
+      <c r="G8">
+        <f>LOG(E8,4)</f>
         <v>1</v>
       </c>
-      <c r="G8" s="3">
-        <f t="shared" ref="G8:G15" si="1">LOG(D8,4)</f>
-        <v>2.4289904975637864</v>
-      </c>
       <c r="H8" s="2">
-        <f t="shared" ref="H8:H15" si="2">D8/E8</f>
+        <f t="shared" ref="H8:H15" si="0">D8/E8</f>
         <v>7.25</v>
       </c>
       <c r="J8">
@@ -1677,15 +1681,15 @@
         <v>3</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M15" si="3">LOG(L8,3)</f>
+        <f t="shared" ref="M8:M15" si="1">LOG(L8,3)</f>
         <v>1</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" ref="N8:N15" si="4">LOG(K8,3)</f>
+        <f t="shared" ref="N8:N15" si="2">LOG(K8,3)</f>
         <v>3.1826583386441376</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" ref="O7:O15" si="5">K8/L8</f>
+        <f t="shared" ref="O7:O15" si="3">K8/L8</f>
         <v>11</v>
       </c>
       <c r="Q8">
@@ -1698,15 +1702,15 @@
         <v>4</v>
       </c>
       <c r="T8">
-        <f t="shared" ref="T8:T14" si="6">LOG(S8,2)</f>
+        <f t="shared" ref="T8:T14" si="4">LOG(S8,2)</f>
         <v>2</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" ref="U8:U14" si="7">LOG(R8,2)</f>
+        <f t="shared" ref="U8:U14" si="5">LOG(R8,2)</f>
         <v>4.584962500721157</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" ref="V8:V14" si="8">R8/S8</f>
+        <f t="shared" ref="V8:V14" si="6">R8/S8</f>
         <v>6</v>
       </c>
     </row>
@@ -1721,16 +1725,16 @@
       <c r="E9">
         <v>16</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
+        <f>LOG(D9,4)</f>
+        <v>3.1144093452479402</v>
+      </c>
+      <c r="G9">
+        <f>LOG(E9,4)</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="1"/>
-        <v>3.1144093452479402</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="2"/>
         <v>4.6875</v>
       </c>
       <c r="J9">
@@ -1743,15 +1747,15 @@
         <v>9</v>
       </c>
       <c r="M9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="2"/>
+        <v>3.7115345294827136</v>
+      </c>
+      <c r="O9" s="2">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="N9" s="3">
-        <f t="shared" si="4"/>
-        <v>3.7115345294827136</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" si="5"/>
         <v>6.5555555555555554</v>
       </c>
       <c r="Q9">
@@ -1764,15 +1768,15 @@
         <v>16</v>
       </c>
       <c r="T9">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="U9" s="3">
+        <f t="shared" si="5"/>
+        <v>6.3219280948873617</v>
+      </c>
+      <c r="V9" s="2">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="U9" s="3">
-        <f t="shared" si="7"/>
-        <v>6.3219280948873617</v>
-      </c>
-      <c r="V9" s="2">
-        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
@@ -1787,16 +1791,16 @@
       <c r="E10">
         <v>64</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
+        <f>LOG(D10,4)</f>
+        <v>3.9504334039903748</v>
+      </c>
+      <c r="G10">
+        <f>LOG(E10,4)</f>
+        <v>3</v>
+      </c>
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="1"/>
-        <v>3.9504334039903748</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="2"/>
         <v>3.734375</v>
       </c>
       <c r="J10">
@@ -1809,15 +1813,15 @@
         <v>27</v>
       </c>
       <c r="M10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="2"/>
+        <v>4.4021735027328797</v>
+      </c>
+      <c r="O10" s="2">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" si="4"/>
-        <v>4.4021735027328797</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" si="5"/>
         <v>4.666666666666667</v>
       </c>
       <c r="Q10">
@@ -1830,15 +1834,15 @@
         <v>64</v>
       </c>
       <c r="T10">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" si="5"/>
+        <v>7.8137811912170374</v>
+      </c>
+      <c r="V10" s="2">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="U10" s="3">
-        <f t="shared" si="7"/>
-        <v>7.8137811912170374</v>
-      </c>
-      <c r="V10" s="2">
-        <f t="shared" si="8"/>
         <v>3.515625</v>
       </c>
     </row>
@@ -1854,16 +1858,16 @@
         <f>768/3</f>
         <v>256</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
+        <f>LOG(D11,4)</f>
+        <v>4.8341470395299986</v>
+      </c>
+      <c r="G11">
+        <f>LOG(E11,4)</f>
+        <v>4</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="1"/>
-        <v>4.8341470395299986</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="2"/>
         <v>3.1783854166666665</v>
       </c>
       <c r="J11">
@@ -1876,15 +1880,15 @@
         <v>81</v>
       </c>
       <c r="M11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="2"/>
+        <v>5.2419782968739774</v>
+      </c>
+      <c r="O11" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N11" s="3">
-        <f t="shared" si="4"/>
-        <v>5.2419782968739774</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" si="5"/>
         <v>3.9135802469135803</v>
       </c>
       <c r="Q11">
@@ -1897,15 +1901,15 @@
         <v>256</v>
       </c>
       <c r="T11">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="U11" s="3">
+        <f t="shared" si="5"/>
+        <v>9.3641346550080513</v>
+      </c>
+      <c r="V11" s="2">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="U11" s="3">
-        <f t="shared" si="7"/>
-        <v>9.3641346550080513</v>
-      </c>
-      <c r="V11" s="2">
-        <f t="shared" si="8"/>
         <v>2.57421875</v>
       </c>
     </row>
@@ -1921,16 +1925,16 @@
         <f>E11*4</f>
         <v>1024</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
+        <f>LOG(D12,4)</f>
+        <v>6.1180569385840542</v>
+      </c>
+      <c r="G12">
+        <f>LOG(E12,4)</f>
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="1"/>
-        <v>6.1180569385840542</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="2"/>
         <v>4.711263020833333</v>
       </c>
       <c r="J12">
@@ -1943,15 +1947,15 @@
         <v>243</v>
       </c>
       <c r="M12">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="2"/>
+        <v>6.236217269879349</v>
+      </c>
+      <c r="O12" s="2">
         <f t="shared" si="3"/>
-        <v>4.9999999999999991</v>
-      </c>
-      <c r="N12" s="3">
-        <f t="shared" si="4"/>
-        <v>6.236217269879349</v>
-      </c>
-      <c r="O12" s="2">
-        <f t="shared" si="5"/>
         <v>3.8888888888888888</v>
       </c>
       <c r="Q12">
@@ -1964,15 +1968,15 @@
         <v>1024</v>
       </c>
       <c r="T12">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="U12" s="3">
+        <f t="shared" si="5"/>
+        <v>11.344295907915818</v>
+      </c>
+      <c r="V12" s="2">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="U12" s="3">
-        <f t="shared" si="7"/>
-        <v>11.344295907915818</v>
-      </c>
-      <c r="V12" s="2">
-        <f t="shared" si="8"/>
         <v>2.5390625</v>
       </c>
     </row>
@@ -1985,19 +1989,19 @@
         <v>29673.333333333332</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E15" si="9">E12*4</f>
+        <f t="shared" ref="E13:E15" si="7">E12*4</f>
         <v>4096</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
+        <f>LOG(D13,4)</f>
+        <v>7.4284396898092373</v>
+      </c>
+      <c r="G13">
+        <f>LOG(E13,4)</f>
+        <v>6</v>
+      </c>
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="1"/>
-        <v>7.4284396898092373</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="2"/>
         <v>7.244466145833333</v>
       </c>
       <c r="J13">
@@ -2010,15 +2014,15 @@
         <v>729</v>
       </c>
       <c r="M13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="2"/>
+        <v>7.0371078348120264</v>
+      </c>
+      <c r="O13" s="2">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="N13" s="3">
-        <f t="shared" si="4"/>
-        <v>7.0371078348120264</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" si="5"/>
         <v>3.1248285322359397</v>
       </c>
       <c r="Q13">
@@ -2031,15 +2035,15 @@
         <v>4096</v>
       </c>
       <c r="T13">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="U13" s="3">
+        <f t="shared" si="5"/>
+        <v>13.336785476203755</v>
+      </c>
+      <c r="V13" s="2">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="U13" s="3">
-        <f t="shared" si="7"/>
-        <v>13.336785476203755</v>
-      </c>
-      <c r="V13" s="2">
-        <f t="shared" si="8"/>
         <v>2.52587890625</v>
       </c>
     </row>
@@ -2055,16 +2059,16 @@
         <f>49152/3</f>
         <v>16384</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
+        <f>LOG(D14,4)</f>
+        <v>8.2838369501000226</v>
+      </c>
+      <c r="G14">
+        <f>LOG(E14,4)</f>
+        <v>7</v>
+      </c>
+      <c r="H14" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="1"/>
-        <v>8.2838369501000226</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="2"/>
         <v>5.92852783203125</v>
       </c>
       <c r="J14">
@@ -2077,15 +2081,15 @@
         <v>2187</v>
       </c>
       <c r="M14">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="2"/>
+        <v>8.4344163381142518</v>
+      </c>
+      <c r="O14" s="2">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" si="4"/>
-        <v>8.4344163381142518</v>
-      </c>
-      <c r="O14" s="2">
-        <f t="shared" si="5"/>
         <v>4.8349336991312297</v>
       </c>
       <c r="Q14">
@@ -2098,15 +2102,15 @@
         <v>16384</v>
       </c>
       <c r="T14">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="U14" s="3">
+        <f t="shared" si="5"/>
+        <v>16.407533331671324</v>
+      </c>
+      <c r="V14" s="2">
         <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="U14" s="3">
-        <f t="shared" si="7"/>
-        <v>16.407533331671324</v>
-      </c>
-      <c r="V14" s="2">
-        <f t="shared" si="8"/>
         <v>5.3056640625</v>
       </c>
     </row>
@@ -2118,19 +2122,19 @@
         <v>398885</v>
       </c>
       <c r="E15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>65536</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
+        <f>LOG(D15,4)</f>
+        <v>9.3028066732948194</v>
+      </c>
+      <c r="G15">
+        <f>LOG(E15,4)</f>
+        <v>8</v>
+      </c>
+      <c r="H15" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="1"/>
-        <v>9.3028066732948194</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="2"/>
         <v>6.0865020751953125</v>
       </c>
       <c r="J15">
@@ -2143,15 +2147,15 @@
         <v>6561</v>
       </c>
       <c r="M15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="2"/>
+        <v>9.8162705465836577</v>
+      </c>
+      <c r="O15" s="2">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="N15" s="3">
-        <f t="shared" si="4"/>
-        <v>9.8162705465836577</v>
-      </c>
-      <c r="O15" s="2">
-        <f t="shared" si="5"/>
         <v>7.3549763755525071</v>
       </c>
       <c r="U15" s="3"/>

--- a/Portfolio/effizienz_tabelle.xlsx
+++ b/Portfolio/effizienz_tabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwein\Documents\GitHub\EFI\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC157443-7350-4ECB-A964-9AFC4970C526}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD47307-E99E-431D-882E-6FD9472BC57B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{362BBB06-4FA3-40E8-AF72-36A04FA32FD8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>depth</t>
   </si>
@@ -54,16 +54,10 @@
     <t>Drachenkurve</t>
   </si>
   <si>
-    <t>log4(moveCount)</t>
-  </si>
-  <si>
     <t>log3(moveCount)</t>
   </si>
   <si>
     <t>duration/moveCount</t>
-  </si>
-  <si>
-    <t>log4(duration)</t>
   </si>
   <si>
     <t>log2(moveCount)</t>
@@ -75,7 +69,37 @@
     <t>log2(duration)</t>
   </si>
   <si>
-    <t>duration (ms)</t>
+    <t>Stufe</t>
+  </si>
+  <si>
+    <t>Laufzeit (ms)</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>s = Move count</t>
+  </si>
+  <si>
+    <t>log4(s)</t>
+  </si>
+  <si>
+    <t>Laufzeit/s</t>
+  </si>
+  <si>
+    <t>&gt; line?</t>
+  </si>
+  <si>
+    <t>log4(Laufzeit)</t>
+  </si>
+  <si>
+    <t>Plot:</t>
+  </si>
+  <si>
+    <t>Stufe:log(Laufzeit)</t>
+  </si>
+  <si>
+    <t>Laufzeit ungeteilt</t>
   </si>
 </sst>
 </file>
@@ -102,12 +126,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,12 +152,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -230,7 +262,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>depth</c:v>
+                  <c:v>Stufe</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -292,11 +324,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$D$6</c:f>
+              <c:f>Tabelle1!$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>duration (ms)</c:v>
+                  <c:v>Laufzeit (ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -318,31 +350,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>239</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0">
-                  <c:v>813.66666666666663</c:v>
+                  <c:v>2378</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0">
-                  <c:v>4824.333333333333</c:v>
+                  <c:v>9512</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0">
-                  <c:v>29673.333333333332</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0">
-                  <c:v>97133</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0">
-                  <c:v>398885</c:v>
+                  <c:v>40531</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>174195</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>629783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -358,11 +390,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$E$6</c:f>
+              <c:f>Tabelle1!$F$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>moveCount</c:v>
+                  <c:v>s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -379,7 +411,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$E$7:$E$15</c:f>
+              <c:f>Tabelle1!$F$7:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1174,7 +1206,7 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
@@ -1502,7 +1534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A3CE31-6E04-4DE6-B48E-EE2396E24816}">
-  <dimension ref="C4:V15"/>
+  <dimension ref="A2:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="86" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
@@ -1510,655 +1542,703 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="N6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="P6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="V6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4">
+        <f>D7/3</f>
+        <v>8</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <f>LOG(D7,4)</f>
-        <v>2.1609640474436813</v>
-      </c>
-      <c r="G7">
-        <f>LOG(E7,4)</f>
+        <v>2.2924812503605785</v>
+      </c>
+      <c r="H7">
+        <f>LOG(F7,4)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="2">
-        <f>D7/E7</f>
-        <v>20</v>
-      </c>
-      <c r="J7">
+      <c r="I7" s="6">
+        <f>D7/F7</f>
+        <v>24</v>
+      </c>
+      <c r="K7">
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>29</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1</v>
       </c>
-      <c r="M7">
+      <c r="N7">
+        <f>LOG(M7,3)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
         <f>LOG(L7,3)</f>
+        <v>3.0650447521106625</v>
+      </c>
+      <c r="P7" s="2">
+        <f>L7/M7</f>
+        <v>29</v>
+      </c>
+      <c r="R7">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
-        <f>LOG(K7,3)</f>
-        <v>3.0650447521106625</v>
-      </c>
-      <c r="O7" s="2">
-        <f>K7/L7</f>
-        <v>29</v>
-      </c>
-      <c r="Q7">
+      <c r="S7">
+        <v>12</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <f>LOG(T7,2)</f>
         <v>0</v>
       </c>
-      <c r="R7">
+      <c r="V7" s="3">
+        <f>LOG(S7,2)</f>
+        <v>3.5849625007211565</v>
+      </c>
+      <c r="W7" s="2">
+        <f>S7/T7</f>
         <v>12</v>
       </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <f>LOG(S7,2)</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <f>LOG(R7,2)</f>
-        <v>3.5849625007211565</v>
-      </c>
-      <c r="V7" s="2">
-        <f>R7/S7</f>
-        <v>12</v>
-      </c>
     </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <f>87/3</f>
-        <v>29</v>
-      </c>
-      <c r="E8">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" ref="E8:E15" si="0">D8/3</f>
+        <v>13</v>
+      </c>
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <f>LOG(D8,4)</f>
-        <v>2.4289904975637864</v>
-      </c>
-      <c r="G8">
-        <f>LOG(E8,4)</f>
+        <v>2.6427011094311244</v>
+      </c>
+      <c r="H8">
+        <f>LOG(F8,4)</f>
         <v>1</v>
       </c>
-      <c r="H8" s="2">
-        <f t="shared" ref="H8:H15" si="0">D8/E8</f>
-        <v>7.25</v>
-      </c>
-      <c r="J8">
+      <c r="I8" s="6">
+        <f>D8/F8</f>
+        <v>9.75</v>
+      </c>
+      <c r="K8">
         <v>1</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>33</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3</v>
       </c>
-      <c r="M8">
-        <f t="shared" ref="M8:M15" si="1">LOG(L8,3)</f>
+      <c r="N8">
+        <f t="shared" ref="N8:N15" si="1">LOG(M8,3)</f>
         <v>1</v>
       </c>
-      <c r="N8" s="3">
-        <f t="shared" ref="N8:N15" si="2">LOG(K8,3)</f>
+      <c r="O8" s="3">
+        <f t="shared" ref="O8:O15" si="2">LOG(L8,3)</f>
         <v>3.1826583386441376</v>
       </c>
-      <c r="O8" s="2">
-        <f t="shared" ref="O7:O15" si="3">K8/L8</f>
+      <c r="P8" s="2">
+        <f t="shared" ref="P7:P15" si="3">L8/M8</f>
         <v>11</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>24</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>4</v>
       </c>
-      <c r="T8">
-        <f t="shared" ref="T8:T14" si="4">LOG(S8,2)</f>
+      <c r="U8">
+        <f t="shared" ref="U8:U14" si="4">LOG(T8,2)</f>
         <v>2</v>
       </c>
-      <c r="U8" s="3">
-        <f t="shared" ref="U8:U14" si="5">LOG(R8,2)</f>
+      <c r="V8" s="3">
+        <f t="shared" ref="V8:V14" si="5">LOG(S8,2)</f>
         <v>4.584962500721157</v>
       </c>
-      <c r="V8" s="2">
-        <f t="shared" ref="V8:V14" si="6">R8/S8</f>
+      <c r="W8" s="2">
+        <f t="shared" ref="W8:W14" si="6">S8/T8</f>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <f>225/3</f>
-        <v>75</v>
-      </c>
-      <c r="E9">
+        <v>148</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>49.333333333333336</v>
+      </c>
+      <c r="F9">
         <v>16</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <f>LOG(D9,4)</f>
-        <v>3.1144093452479402</v>
-      </c>
-      <c r="G9">
-        <f>LOG(E9,4)</f>
+        <v>3.6047266828144746</v>
+      </c>
+      <c r="H9">
+        <f>LOG(F9,4)</f>
         <v>2</v>
       </c>
-      <c r="H9" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6875</v>
-      </c>
-      <c r="J9">
+      <c r="I9" s="6">
+        <f>D9/F9</f>
+        <v>9.25</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>59</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>9</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <f t="shared" si="2"/>
         <v>3.7115345294827136</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <f t="shared" si="3"/>
         <v>6.5555555555555554</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>4</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>80</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>16</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <f t="shared" si="5"/>
         <v>6.3219280948873617</v>
       </c>
-      <c r="V9" s="2">
+      <c r="W9" s="2">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <f>717/3</f>
-        <v>239</v>
-      </c>
-      <c r="E10">
+        <v>565</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>188.33333333333334</v>
+      </c>
+      <c r="F10">
         <v>64</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <f>LOG(D10,4)</f>
-        <v>3.9504334039903748</v>
-      </c>
-      <c r="G10">
-        <f>LOG(E10,4)</f>
+        <v>4.5710535286512757</v>
+      </c>
+      <c r="H10">
+        <f>LOG(F10,4)</f>
         <v>3</v>
       </c>
-      <c r="H10" s="2">
-        <f t="shared" si="0"/>
-        <v>3.734375</v>
-      </c>
-      <c r="J10">
+      <c r="I10" s="6">
+        <f>D10/F10</f>
+        <v>8.828125</v>
+      </c>
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>126</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>27</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <f t="shared" si="2"/>
         <v>4.4021735027328797</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <f t="shared" si="3"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>6</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>225</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>64</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <f t="shared" si="5"/>
         <v>7.8137811912170374</v>
       </c>
-      <c r="V10" s="2">
+      <c r="W10" s="2">
         <f t="shared" si="6"/>
         <v>3.515625</v>
       </c>
     </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" s="4">
-        <f>2441/3</f>
-        <v>813.66666666666663</v>
-      </c>
-      <c r="E11">
+        <v>2378</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>792.66666666666663</v>
+      </c>
+      <c r="F11">
         <f>768/3</f>
         <v>256</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <f>LOG(D11,4)</f>
-        <v>4.8341470395299986</v>
-      </c>
-      <c r="G11">
-        <f>LOG(E11,4)</f>
+        <v>5.6077664998728283</v>
+      </c>
+      <c r="H11">
+        <f>LOG(F11,4)</f>
         <v>4</v>
       </c>
-      <c r="H11" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1783854166666665</v>
-      </c>
-      <c r="J11">
+      <c r="I11" s="6">
+        <f>D11/F11</f>
+        <v>9.2890625</v>
+      </c>
+      <c r="K11">
         <v>4</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>317</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>81</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <f t="shared" si="2"/>
         <v>5.2419782968739774</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <f t="shared" si="3"/>
         <v>3.9135802469135803</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>8</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>659</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>256</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="U11" s="3">
+      <c r="V11" s="3">
         <f t="shared" si="5"/>
         <v>9.3641346550080513</v>
       </c>
-      <c r="V11" s="2">
+      <c r="W11" s="2">
         <f t="shared" si="6"/>
         <v>2.57421875</v>
       </c>
     </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12" s="4">
-        <f>14473/3</f>
-        <v>4824.333333333333</v>
-      </c>
-      <c r="E12">
-        <f>E11*4</f>
+        <v>9512</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>3170.6666666666665</v>
+      </c>
+      <c r="F12">
+        <f>F11*4</f>
         <v>1024</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <f>LOG(D12,4)</f>
-        <v>6.1180569385840542</v>
-      </c>
-      <c r="G12">
-        <f>LOG(E12,4)</f>
+        <v>6.6077664998728283</v>
+      </c>
+      <c r="H12">
+        <f>LOG(F12,4)</f>
         <v>5</v>
       </c>
-      <c r="H12" s="2">
-        <f t="shared" si="0"/>
-        <v>4.711263020833333</v>
-      </c>
-      <c r="J12">
+      <c r="I12" s="6">
+        <f>D12/F12</f>
+        <v>9.2890625</v>
+      </c>
+      <c r="K12">
         <v>5</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>945</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>243</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f t="shared" si="1"/>
         <v>4.9999999999999991</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <f t="shared" si="2"/>
         <v>6.236217269879349</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <f t="shared" si="3"/>
         <v>3.8888888888888888</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>10</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>2600</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1024</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <f t="shared" si="5"/>
         <v>11.344295907915818</v>
       </c>
-      <c r="V12" s="2">
+      <c r="W12" s="2">
         <f t="shared" si="6"/>
         <v>2.5390625</v>
       </c>
     </row>
-    <row r="13" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C13">
         <v>6</v>
       </c>
       <c r="D13" s="4">
-        <f>89020/3</f>
-        <v>29673.333333333332</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ref="E13:E15" si="7">E12*4</f>
+        <v>40531</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>13510.333333333334</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F15" si="7">F12*4</f>
         <v>4096</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <f>LOG(D13,4)</f>
-        <v>7.4284396898092373</v>
-      </c>
-      <c r="G13">
-        <f>LOG(E13,4)</f>
+        <v>7.6533690751138241</v>
+      </c>
+      <c r="H13">
+        <f>LOG(F13,4)</f>
         <v>6</v>
       </c>
-      <c r="H13" s="2">
-        <f t="shared" si="0"/>
-        <v>7.244466145833333</v>
-      </c>
-      <c r="J13">
+      <c r="I13" s="6">
+        <f>D13/F13</f>
+        <v>9.895263671875</v>
+      </c>
+      <c r="K13">
         <v>6</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>2278</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>729</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="3">
         <f t="shared" si="2"/>
         <v>7.0371078348120264</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <f t="shared" si="3"/>
         <v>3.1248285322359397</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>12</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>10346</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>4096</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="U13" s="3">
+      <c r="V13" s="3">
         <f t="shared" si="5"/>
         <v>13.336785476203755</v>
       </c>
-      <c r="V13" s="2">
+      <c r="W13" s="2">
         <f t="shared" si="6"/>
         <v>2.52587890625</v>
       </c>
     </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>7</v>
       </c>
-      <c r="D14" s="4">
-        <f>291399/3</f>
-        <v>97133</v>
-      </c>
-      <c r="E14">
+      <c r="D14">
+        <v>174195</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>58065</v>
+      </c>
+      <c r="F14">
         <f>49152/3</f>
         <v>16384</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <f>LOG(D14,4)</f>
-        <v>8.2838369501000226</v>
-      </c>
-      <c r="G14">
-        <f>LOG(E14,4)</f>
+        <v>8.7051718443109927</v>
+      </c>
+      <c r="H14">
+        <f>LOG(F14,4)</f>
         <v>7</v>
       </c>
-      <c r="H14" s="2">
-        <f t="shared" si="0"/>
-        <v>5.92852783203125</v>
-      </c>
-      <c r="J14">
+      <c r="I14" s="6">
+        <f>D14/F14</f>
+        <v>10.63201904296875</v>
+      </c>
+      <c r="K14">
         <v>7</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>10574</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>2187</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <f t="shared" si="2"/>
         <v>8.4344163381142518</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
         <f t="shared" si="3"/>
         <v>4.8349336991312297</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>14</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>86928</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>16384</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <f t="shared" si="5"/>
         <v>16.407533331671324</v>
       </c>
-      <c r="V14" s="2">
+      <c r="W14" s="2">
         <f t="shared" si="6"/>
         <v>5.3056640625</v>
       </c>
     </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15" s="4">
-        <v>398885</v>
-      </c>
-      <c r="E15">
+      <c r="D15">
+        <v>629783</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>209927.66666666666</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="7"/>
         <v>65536</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <f>LOG(D15,4)</f>
-        <v>9.3028066732948194</v>
-      </c>
-      <c r="G15">
-        <f>LOG(E15,4)</f>
+        <v>9.6322476445778769</v>
+      </c>
+      <c r="H15">
+        <f>LOG(F15,4)</f>
         <v>8</v>
       </c>
-      <c r="H15" s="2">
-        <f t="shared" si="0"/>
-        <v>6.0865020751953125</v>
-      </c>
-      <c r="J15">
+      <c r="I15" s="6">
+        <f>D15/F15</f>
+        <v>9.6097259521484375</v>
+      </c>
+      <c r="K15">
         <v>8</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>48256</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>6561</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <f t="shared" si="2"/>
         <v>9.8162705465836577</v>
       </c>
-      <c r="O15" s="2">
+      <c r="P15" s="2">
         <f t="shared" si="3"/>
         <v>7.3549763755525071</v>
       </c>
-      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Portfolio/effizienz_tabelle.xlsx
+++ b/Portfolio/effizienz_tabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwein\Documents\GitHub\EFI\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD47307-E99E-431D-882E-6FD9472BC57B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA6A375-67B3-4118-8FA4-435F6366D1FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{362BBB06-4FA3-40E8-AF72-36A04FA32FD8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>depth</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Laufzeit/s</t>
   </si>
   <si>
-    <t>&gt; line?</t>
-  </si>
-  <si>
     <t>log4(Laufzeit)</t>
   </si>
   <si>
@@ -100,6 +97,12 @@
   </si>
   <si>
     <t>Laufzeit ungeteilt</t>
+  </si>
+  <si>
+    <t>Laufzeit/movecount</t>
+  </si>
+  <si>
+    <t>table</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -160,6 +163,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -211,7 +216,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE"/>
+              <a:rPr lang="en-US"/>
               <a:t>Schneeflocke</a:t>
             </a:r>
           </a:p>
@@ -249,35 +254,92 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$6</c:f>
+              <c:f>Tabelle1!$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stufe</c:v>
+                  <c:v>log4(Laufzeit)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$C$7:$C$15</c:f>
               <c:numCache>
@@ -312,142 +374,47 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$7:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.2924812503605785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6427011094311244</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6047266828144746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5710535286512757</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6077664998728283</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6077664998728283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6533690751138241</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7051718443109927</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6322476445778769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D6C-43D7-AA55-5741C0C939E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Laufzeit (ms)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$D$7:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>565</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0">
-                  <c:v>2378</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0">
-                  <c:v>9512</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0">
-                  <c:v>40531</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>174195</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>629783</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0D6C-43D7-AA55-5741C0C939E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$F$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>s</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$F$7:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>65536</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0D6C-43D7-AA55-5741C0C939E0}"/>
+              <c16:uniqueId val="{00000000-58CA-424D-ADA0-77E94AC1BD82}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -459,18 +426,86 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="578773816"/>
-        <c:axId val="578774456"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="578773816"/>
+        <c:axId val="418189744"/>
+        <c:axId val="418191664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="418189744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Stufe</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -479,8 +514,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -507,16 +542,424 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578774456"/>
+        <c:crossAx val="418191664"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="578774456"/>
+        <c:axId val="418191664"/>
         <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>log4(Laufzeit) ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418189744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$7:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>188.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>792.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3170.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13510.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58065</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>209927.66666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$7:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB3E-4800-A67F-E34CF7C63B53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="348113840"/>
+        <c:axId val="578778616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="348113840"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578778616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="578778616"/>
+        <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -541,8 +984,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -566,9 +1015,9 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578773816"/>
+        <c:crossAx val="348113840"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -578,37 +1027,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -693,8 +1111,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -721,8 +1179,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -823,7 +1281,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -855,10 +1313,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -898,22 +1356,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1018,8 +1477,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1151,23 +1610,240 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1177,6 +1853,317 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1200,23 +2187,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>267445</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>528592</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>168124</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60F8A0E-B6FF-4B1C-9DB9-A49376B15ED3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C0A4AB-3C42-4EE3-B898-1852985416D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1229,6 +2216,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>306916</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>154164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>195791</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>119239</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDEFAF07-C378-467B-87DE-4B7C91C4F723}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1534,14 +2557,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A3CE31-6E04-4DE6-B48E-EE2396E24816}">
-  <dimension ref="A2:W17"/>
+  <dimension ref="A2:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="86" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.81640625" customWidth="1"/>
     <col min="8" max="8" width="12.7265625" customWidth="1"/>
@@ -1564,11 +2588,11 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -1576,8 +2600,8 @@
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
+      <c r="G6" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>15</v>
@@ -1624,7 +2648,10 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="C7">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8">
         <v>0</v>
       </c>
       <c r="D7">
@@ -1637,7 +2664,7 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="7">
         <f>LOG(D7,4)</f>
         <v>2.2924812503605785</v>
       </c>
@@ -1653,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1664,17 +2691,17 @@
       </c>
       <c r="O7" s="3">
         <f>LOG(L7,3)</f>
-        <v>3.0650447521106625</v>
+        <v>1.6309297535714573</v>
       </c>
       <c r="P7" s="2">
         <f>L7/M7</f>
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -1685,15 +2712,15 @@
       </c>
       <c r="V7" s="3">
         <f>LOG(S7,2)</f>
-        <v>3.5849625007211565</v>
+        <v>2.5849625007211561</v>
       </c>
       <c r="W7" s="2">
         <f>S7/T7</f>
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="C8">
+      <c r="C8" s="8">
         <v>1</v>
       </c>
       <c r="D8">
@@ -1706,7 +2733,7 @@
       <c r="F8">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="7">
         <f>LOG(D8,4)</f>
         <v>2.6427011094311244</v>
       </c>
@@ -1722,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M8">
         <v>3</v>
@@ -1733,17 +2760,17 @@
       </c>
       <c r="O8" s="3">
         <f t="shared" ref="O8:O15" si="2">LOG(L8,3)</f>
-        <v>3.1826583386441376</v>
+        <v>2.4649735207179271</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" ref="P7:P15" si="3">L8/M8</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R8">
         <v>2</v>
       </c>
       <c r="S8">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="T8">
         <v>4</v>
@@ -1754,18 +2781,18 @@
       </c>
       <c r="V8" s="3">
         <f t="shared" ref="V8:V14" si="5">LOG(S8,2)</f>
-        <v>4.584962500721157</v>
+        <v>4</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" ref="W8:W14" si="6">S8/T8</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8">
         <v>2</v>
       </c>
       <c r="D9">
@@ -1778,7 +2805,7 @@
       <c r="F9">
         <v>16</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="7">
         <f>LOG(D9,4)</f>
         <v>3.6047266828144746</v>
       </c>
@@ -1794,7 +2821,7 @@
         <v>2</v>
       </c>
       <c r="L9">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="M9">
         <v>9</v>
@@ -1805,17 +2832,17 @@
       </c>
       <c r="O9" s="3">
         <f t="shared" si="2"/>
-        <v>3.7115345294827136</v>
+        <v>3.2618595071429146</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="3"/>
-        <v>6.5555555555555554</v>
+        <v>4</v>
       </c>
       <c r="R9">
         <v>4</v>
       </c>
       <c r="S9">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="T9">
         <v>16</v>
@@ -1826,18 +2853,18 @@
       </c>
       <c r="V9" s="3">
         <f t="shared" si="5"/>
-        <v>6.3219280948873617</v>
+        <v>5.4918530963296748</v>
       </c>
       <c r="W9" s="2">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>2.8125</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8">
         <v>3</v>
       </c>
       <c r="D10">
@@ -1850,7 +2877,7 @@
       <c r="F10">
         <v>64</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="7">
         <f>LOG(D10,4)</f>
         <v>4.5710535286512757</v>
       </c>
@@ -1866,7 +2893,7 @@
         <v>3</v>
       </c>
       <c r="L10">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="M10">
         <v>27</v>
@@ -1877,17 +2904,17 @@
       </c>
       <c r="O10" s="3">
         <f t="shared" si="2"/>
-        <v>4.4021735027328797</v>
+        <v>4.200863730039238</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="3"/>
-        <v>4.666666666666667</v>
+        <v>3.7407407407407409</v>
       </c>
       <c r="R10">
         <v>6</v>
       </c>
       <c r="S10">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="T10">
         <v>64</v>
@@ -1898,15 +2925,18 @@
       </c>
       <c r="V10" s="3">
         <f t="shared" si="5"/>
-        <v>7.8137811912170374</v>
+        <v>7.4676055500829976</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" si="6"/>
-        <v>3.515625</v>
+        <v>2.765625</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="C11">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8">
         <v>4</v>
       </c>
       <c r="D11" s="4">
@@ -1920,7 +2950,7 @@
         <f>768/3</f>
         <v>256</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="7">
         <f>LOG(D11,4)</f>
         <v>5.6077664998728283</v>
       </c>
@@ -1936,7 +2966,7 @@
         <v>4</v>
       </c>
       <c r="L11">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="M11">
         <v>81</v>
@@ -1947,17 +2977,17 @@
       </c>
       <c r="O11" s="3">
         <f t="shared" si="2"/>
-        <v>5.2419782968739774</v>
+        <v>5.0891356652209181</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="3"/>
-        <v>3.9135802469135803</v>
+        <v>3.308641975308642</v>
       </c>
       <c r="R11">
         <v>8</v>
       </c>
       <c r="S11">
-        <v>659</v>
+        <v>783</v>
       </c>
       <c r="T11">
         <v>256</v>
@@ -1968,15 +2998,15 @@
       </c>
       <c r="V11" s="3">
         <f t="shared" si="5"/>
-        <v>9.3641346550080513</v>
+        <v>9.612868497291041</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" si="6"/>
-        <v>2.57421875</v>
+        <v>3.05859375</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="C12">
+      <c r="C12" s="8">
         <v>5</v>
       </c>
       <c r="D12" s="4">
@@ -1990,7 +3020,7 @@
         <f>F11*4</f>
         <v>1024</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="7">
         <f>LOG(D12,4)</f>
         <v>6.6077664998728283</v>
       </c>
@@ -2006,7 +3036,7 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <v>945</v>
+        <v>767</v>
       </c>
       <c r="M12">
         <v>243</v>
@@ -2017,17 +3047,17 @@
       </c>
       <c r="O12" s="3">
         <f t="shared" si="2"/>
-        <v>6.236217269879349</v>
+        <v>6.0462520489555054</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="3"/>
-        <v>3.8888888888888888</v>
+        <v>3.1563786008230452</v>
       </c>
       <c r="R12">
         <v>10</v>
       </c>
       <c r="S12">
-        <v>2600</v>
+        <v>3182</v>
       </c>
       <c r="T12">
         <v>1024</v>
@@ -2038,15 +3068,15 @@
       </c>
       <c r="V12" s="3">
         <f t="shared" si="5"/>
-        <v>11.344295907915818</v>
+        <v>11.635718120331049</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" si="6"/>
-        <v>2.5390625</v>
+        <v>3.107421875</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="C13">
+      <c r="C13" s="8">
         <v>6</v>
       </c>
       <c r="D13" s="4">
@@ -2060,7 +3090,7 @@
         <f t="shared" ref="F13:F15" si="7">F12*4</f>
         <v>4096</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="7">
         <f>LOG(D13,4)</f>
         <v>7.6533690751138241</v>
       </c>
@@ -2076,7 +3106,7 @@
         <v>6</v>
       </c>
       <c r="L13">
-        <v>2278</v>
+        <v>2608</v>
       </c>
       <c r="M13">
         <v>729</v>
@@ -2087,17 +3117,17 @@
       </c>
       <c r="O13" s="3">
         <f t="shared" si="2"/>
-        <v>7.0371078348120264</v>
+        <v>7.1602502576984746</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="3"/>
-        <v>3.1248285322359397</v>
+        <v>3.5775034293552812</v>
       </c>
       <c r="R13">
         <v>12</v>
       </c>
       <c r="S13">
-        <v>10346</v>
+        <v>12902</v>
       </c>
       <c r="T13">
         <v>4096</v>
@@ -2108,15 +3138,15 @@
       </c>
       <c r="V13" s="3">
         <f t="shared" si="5"/>
-        <v>13.336785476203755</v>
+        <v>13.655307101510479</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" si="6"/>
-        <v>2.52587890625</v>
+        <v>3.14990234375</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="C14">
+      <c r="C14" s="8">
         <v>7</v>
       </c>
       <c r="D14">
@@ -2130,7 +3160,7 @@
         <f>49152/3</f>
         <v>16384</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="7">
         <f>LOG(D14,4)</f>
         <v>8.7051718443109927</v>
       </c>
@@ -2146,7 +3176,7 @@
         <v>7</v>
       </c>
       <c r="L14">
-        <v>10574</v>
+        <v>7408</v>
       </c>
       <c r="M14">
         <v>2187</v>
@@ -2157,17 +3187,17 @@
       </c>
       <c r="O14" s="3">
         <f t="shared" si="2"/>
-        <v>8.4344163381142518</v>
+        <v>8.1105189412438996</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="3"/>
-        <v>4.8349336991312297</v>
+        <v>3.3872885230909922</v>
       </c>
       <c r="R14">
         <v>14</v>
       </c>
       <c r="S14">
-        <v>86928</v>
+        <v>50729</v>
       </c>
       <c r="T14">
         <v>16384</v>
@@ -2178,15 +3208,15 @@
       </c>
       <c r="V14" s="3">
         <f t="shared" si="5"/>
-        <v>16.407533331671324</v>
+        <v>15.630523101042346</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="6"/>
-        <v>5.3056640625</v>
+        <v>3.09625244140625</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="C15">
+      <c r="C15" s="8">
         <v>8</v>
       </c>
       <c r="D15">
@@ -2200,7 +3230,7 @@
         <f t="shared" si="7"/>
         <v>65536</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="7">
         <f>LOG(D15,4)</f>
         <v>9.6322476445778769</v>
       </c>
@@ -2216,7 +3246,7 @@
         <v>8</v>
       </c>
       <c r="L15">
-        <v>48256</v>
+        <v>21683</v>
       </c>
       <c r="M15">
         <v>6561</v>
@@ -2227,18 +3257,13 @@
       </c>
       <c r="O15" s="3">
         <f t="shared" si="2"/>
-        <v>9.8162705465836577</v>
+        <v>9.0880867848916491</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="3"/>
-        <v>7.3549763755525071</v>
+        <v>3.304831580551745</v>
       </c>
       <c r="V15" s="3"/>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Portfolio/effizienz_tabelle.xlsx
+++ b/Portfolio/effizienz_tabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwein\Documents\GitHub\EFI\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA6A375-67B3-4118-8FA4-435F6366D1FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202DD260-7E2C-4ABF-BF2A-6D8EEBA09610}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{362BBB06-4FA3-40E8-AF72-36A04FA32FD8}"/>
   </bookViews>
@@ -34,16 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
-  <si>
-    <t>depth</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>moveCount</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Schneeflocke</t>
   </si>
@@ -52,21 +43,6 @@
   </si>
   <si>
     <t>Drachenkurve</t>
-  </si>
-  <si>
-    <t>log3(moveCount)</t>
-  </si>
-  <si>
-    <t>duration/moveCount</t>
-  </si>
-  <si>
-    <t>log2(moveCount)</t>
-  </si>
-  <si>
-    <t>log3(duration)</t>
-  </si>
-  <si>
-    <t>log2(duration)</t>
   </si>
   <si>
     <t>Stufe</t>
@@ -104,6 +80,18 @@
   <si>
     <t>table</t>
   </si>
+  <si>
+    <t>log3(Laufzeit)</t>
+  </si>
+  <si>
+    <t>log3(s)</t>
+  </si>
+  <si>
+    <t>log2(Laufzeit)</t>
+  </si>
+  <si>
+    <t>log2(s)</t>
+  </si>
 </sst>
 </file>
 
@@ -112,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +111,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -138,12 +141,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -151,25 +154,144 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -341,7 +463,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$7:$C$15</c:f>
+              <c:f>Tabelle1!$D$7:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -730,6 +852,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Schneeflocke</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -915,6 +1062,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -978,6 +1180,2125 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Laufzeit (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348113840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Pfeilspitze</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log3(Laufzeit)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$K$7:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$N$7:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.6309297535714573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4649735207179271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2618595071429146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.200863730039238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0891356652209181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0462520489555054</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1602502576984746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1105189412438996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0880867848916491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A0D-4340-BE33-037B834FEF3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="567921744"/>
+        <c:axId val="567922064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="567921744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Stufe</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567922064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="567922064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>log3(Laufzeit) ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567921744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pfeilspitze</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$7:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2608</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7408</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$M$7:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2187</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07D2-4757-877D-667AD30C21B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="348113840"/>
+        <c:axId val="578778616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="348113840"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578778616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="578778616"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Laufzeit (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348113840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Drachenkurve</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$U$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log2(Laufzeit)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$R$7:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$U$7:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.5849625007211561</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4918530963296748</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4676055500829976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.612868497291041</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.635718120331049</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.655307101510479</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.630523101042346</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-666A-40A3-8462-5EE61F87049F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="567921744"/>
+        <c:axId val="567922064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="567921744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Stufe</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567922064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="567922064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>log3(Laufzeit) ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567921744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Drachenkurve</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$T$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$S$7:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50729</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$T$7:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2110-4F91-8CB8-1B90E0057E3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="348113840"/>
+        <c:axId val="578778616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="348113840"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578778616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="578778616"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Laufzeit (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1151,6 +3472,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1668,6 +4149,2070 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2223,16 +6768,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>306916</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>154164</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>289277</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>195791</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>119239</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>75141</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2257,7 +6802,180 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>306917</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>151694</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>119238</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{839E0441-E62C-4ABB-8103-A5FF507E012A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>149930</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>79376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>74082</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>44451</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3370573B-B543-4B17-9FF3-1C62A7BD30E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>307259</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>81936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>326148</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47011</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Diagramm 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4766045-74E7-4910-A628-BBF8E7F1FC95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>98265</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>149430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Diagramm 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50926553-FBCF-4203-8A1E-03A1DC6C26D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C33B9CC4-C717-4D29-A481-E487A438D56C}" name="Tabelle1" displayName="Tabelle1" ref="D6:I15" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="D6:I15" xr:uid="{275AC1F7-5BAE-4DA9-AAEE-127CCEDF4441}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{5CA0C140-2207-4F75-8A22-73EBEB4EC328}" name="Stufe" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{E4B6A9E5-F1F8-4B9D-9728-E5AAC10B3DE9}" name="Laufzeit (ms)" dataDxfId="6">
+      <calculatedColumnFormula>B7/3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{0BCE7942-06EB-4612-982B-4F8459B77CA3}" name="s" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{D417C1ED-649B-4CB6-942A-DE5B0BE7A5BB}" name="log4(Laufzeit)" dataDxfId="4">
+      <calculatedColumnFormula>LOG(B7,4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{ECDA52CB-8802-49DA-AAB6-207F9F3A65A7}" name="log4(s)" dataDxfId="3">
+      <calculatedColumnFormula>LOG(F7,4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{C2852E43-C94B-4B97-85B6-62E8E577E79D}" name="Laufzeit/s" dataDxfId="2">
+      <calculatedColumnFormula>B7/F7</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2559,123 +7277,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A3CE31-6E04-4DE6-B48E-EE2396E24816}">
   <dimension ref="A2:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H15"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="60" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="15.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
     <col min="7" max="7" width="14.81640625" customWidth="1"/>
     <col min="8" max="8" width="12.7265625" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="F2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" t="s">
-        <v>5</v>
+    <row r="4" spans="1:23" s="9" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="8">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>24</v>
-      </c>
-      <c r="E7" s="4">
-        <f>D7/3</f>
+      <c r="E7" s="6">
+        <f>B7/3</f>
         <v>8</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>1</v>
       </c>
       <c r="G7" s="7">
-        <f>LOG(D7,4)</f>
+        <f>LOG(B7,4)</f>
         <v>2.2924812503605785</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <f>LOG(F7,4)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="6">
-        <f>D7/F7</f>
+      <c r="I7" s="8">
+        <f>B7/F7</f>
         <v>24</v>
       </c>
+      <c r="J7" s="5"/>
       <c r="K7">
         <v>0</v>
       </c>
@@ -2685,13 +7408,13 @@
       <c r="M7">
         <v>1</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
+        <f>LOG(L7,3)</f>
+        <v>1.6309297535714573</v>
+      </c>
+      <c r="O7">
         <f>LOG(M7,3)</f>
         <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <f>LOG(L7,3)</f>
-        <v>1.6309297535714573</v>
       </c>
       <c r="P7" s="2">
         <f>L7/M7</f>
@@ -2706,13 +7429,13 @@
       <c r="T7">
         <v>1</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="3">
+        <f>LOG(S7,2)</f>
+        <v>2.5849625007211561</v>
+      </c>
+      <c r="V7">
         <f>LOG(T7,2)</f>
         <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <f>LOG(S7,2)</f>
-        <v>2.5849625007211561</v>
       </c>
       <c r="W7" s="2">
         <f>S7/T7</f>
@@ -2720,31 +7443,32 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="C8" s="8">
+      <c r="B8" s="5">
+        <v>39</v>
+      </c>
+      <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>39</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" ref="E8:E15" si="0">D8/3</f>
+      <c r="E8" s="6">
+        <f>B8/3</f>
         <v>13</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>4</v>
       </c>
       <c r="G8" s="7">
-        <f>LOG(D8,4)</f>
+        <f>LOG(B8,4)</f>
         <v>2.6427011094311244</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <f>LOG(F8,4)</f>
         <v>1</v>
       </c>
-      <c r="I8" s="6">
-        <f>D8/F8</f>
+      <c r="I8" s="8">
+        <f>B8/F8</f>
         <v>9.75</v>
       </c>
+      <c r="J8" s="5"/>
       <c r="K8">
         <v>1</v>
       </c>
@@ -2754,16 +7478,16 @@
       <c r="M8">
         <v>3</v>
       </c>
-      <c r="N8">
-        <f t="shared" ref="N8:N15" si="1">LOG(M8,3)</f>
+      <c r="N8" s="3">
+        <f>LOG(L8,3)</f>
+        <v>2.4649735207179271</v>
+      </c>
+      <c r="O8">
+        <f>LOG(M8,3)</f>
         <v>1</v>
       </c>
-      <c r="O8" s="3">
-        <f t="shared" ref="O8:O15" si="2">LOG(L8,3)</f>
-        <v>2.4649735207179271</v>
-      </c>
       <c r="P8" s="2">
-        <f t="shared" ref="P7:P15" si="3">L8/M8</f>
+        <f t="shared" ref="P7:P15" si="0">L8/M8</f>
         <v>5</v>
       </c>
       <c r="R8">
@@ -2775,48 +7499,49 @@
       <c r="T8">
         <v>4</v>
       </c>
-      <c r="U8">
-        <f t="shared" ref="U8:U14" si="4">LOG(T8,2)</f>
+      <c r="U8" s="3">
+        <f>LOG(S8,2)</f>
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <f>LOG(T8,2)</f>
         <v>2</v>
       </c>
-      <c r="V8" s="3">
-        <f t="shared" ref="V8:V14" si="5">LOG(S8,2)</f>
-        <v>4</v>
-      </c>
       <c r="W8" s="2">
-        <f t="shared" ref="W8:W14" si="6">S8/T8</f>
+        <f t="shared" ref="W8:W14" si="1">S8/T8</f>
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="8">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5">
+        <v>148</v>
+      </c>
+      <c r="D9" s="5">
         <v>2</v>
       </c>
-      <c r="D9">
-        <v>148</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
+      <c r="E9" s="6">
+        <f>B9/3</f>
         <v>49.333333333333336</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>16</v>
       </c>
       <c r="G9" s="7">
-        <f>LOG(D9,4)</f>
+        <f>LOG(B9,4)</f>
         <v>3.6047266828144746</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <f>LOG(F9,4)</f>
         <v>2</v>
       </c>
-      <c r="I9" s="6">
-        <f>D9/F9</f>
+      <c r="I9" s="8">
+        <f>B9/F9</f>
         <v>9.25</v>
       </c>
+      <c r="J9" s="5"/>
       <c r="K9">
         <v>2</v>
       </c>
@@ -2826,16 +7551,16 @@
       <c r="M9">
         <v>9</v>
       </c>
-      <c r="N9">
-        <f t="shared" si="1"/>
+      <c r="N9" s="3">
+        <f>LOG(L9,3)</f>
+        <v>3.2618595071429146</v>
+      </c>
+      <c r="O9">
+        <f>LOG(M9,3)</f>
         <v>2</v>
       </c>
-      <c r="O9" s="3">
-        <f t="shared" si="2"/>
-        <v>3.2618595071429146</v>
-      </c>
       <c r="P9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="R9">
@@ -2847,48 +7572,49 @@
       <c r="T9">
         <v>16</v>
       </c>
-      <c r="U9">
-        <f t="shared" si="4"/>
+      <c r="U9" s="3">
+        <f>LOG(S9,2)</f>
+        <v>5.4918530963296748</v>
+      </c>
+      <c r="V9">
+        <f>LOG(T9,2)</f>
         <v>4</v>
       </c>
-      <c r="V9" s="3">
-        <f t="shared" si="5"/>
-        <v>5.4918530963296748</v>
-      </c>
       <c r="W9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.8125</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="8">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5">
+        <v>565</v>
+      </c>
+      <c r="D10" s="5">
         <v>3</v>
       </c>
-      <c r="D10">
-        <v>565</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="0"/>
+      <c r="E10" s="6">
+        <f>B10/3</f>
         <v>188.33333333333334</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>64</v>
       </c>
       <c r="G10" s="7">
-        <f>LOG(D10,4)</f>
+        <f>LOG(B10,4)</f>
         <v>4.5710535286512757</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <f>LOG(F10,4)</f>
         <v>3</v>
       </c>
-      <c r="I10" s="6">
-        <f>D10/F10</f>
+      <c r="I10" s="8">
+        <f>B10/F10</f>
         <v>8.828125</v>
       </c>
+      <c r="J10" s="5"/>
       <c r="K10">
         <v>3</v>
       </c>
@@ -2898,16 +7624,16 @@
       <c r="M10">
         <v>27</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="1"/>
+      <c r="N10" s="3">
+        <f>LOG(L10,3)</f>
+        <v>4.200863730039238</v>
+      </c>
+      <c r="O10">
+        <f>LOG(M10,3)</f>
         <v>3</v>
       </c>
-      <c r="O10" s="3">
-        <f t="shared" si="2"/>
-        <v>4.200863730039238</v>
-      </c>
       <c r="P10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.7407407407407409</v>
       </c>
       <c r="R10">
@@ -2919,49 +7645,50 @@
       <c r="T10">
         <v>64</v>
       </c>
-      <c r="U10">
-        <f t="shared" si="4"/>
+      <c r="U10" s="3">
+        <f>LOG(S10,2)</f>
+        <v>7.4676055500829976</v>
+      </c>
+      <c r="V10">
+        <f>LOG(T10,2)</f>
         <v>6</v>
       </c>
-      <c r="V10" s="3">
-        <f t="shared" si="5"/>
-        <v>7.4676055500829976</v>
-      </c>
       <c r="W10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.765625</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="8">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2378</v>
+      </c>
+      <c r="D11" s="5">
         <v>4</v>
       </c>
-      <c r="D11" s="4">
-        <v>2378</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
+      <c r="E11" s="6">
+        <f>B11/3</f>
         <v>792.66666666666663</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <f>768/3</f>
         <v>256</v>
       </c>
       <c r="G11" s="7">
-        <f>LOG(D11,4)</f>
+        <f>LOG(B11,4)</f>
         <v>5.6077664998728283</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <f>LOG(F11,4)</f>
         <v>4</v>
       </c>
-      <c r="I11" s="6">
-        <f>D11/F11</f>
+      <c r="I11" s="8">
+        <f>B11/F11</f>
         <v>9.2890625</v>
       </c>
+      <c r="J11" s="5"/>
       <c r="K11">
         <v>4</v>
       </c>
@@ -2971,16 +7698,16 @@
       <c r="M11">
         <v>81</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="1"/>
+      <c r="N11" s="3">
+        <f>LOG(L11,3)</f>
+        <v>5.0891356652209181</v>
+      </c>
+      <c r="O11">
+        <f>LOG(M11,3)</f>
         <v>4</v>
       </c>
-      <c r="O11" s="3">
-        <f t="shared" si="2"/>
-        <v>5.0891356652209181</v>
-      </c>
       <c r="P11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.308641975308642</v>
       </c>
       <c r="R11">
@@ -2992,46 +7719,47 @@
       <c r="T11">
         <v>256</v>
       </c>
-      <c r="U11">
-        <f t="shared" si="4"/>
+      <c r="U11" s="3">
+        <f>LOG(S11,2)</f>
+        <v>9.612868497291041</v>
+      </c>
+      <c r="V11">
+        <f>LOG(T11,2)</f>
         <v>8</v>
       </c>
-      <c r="V11" s="3">
-        <f t="shared" si="5"/>
-        <v>9.612868497291041</v>
-      </c>
       <c r="W11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3.05859375</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="C12" s="8">
+      <c r="B12" s="6">
+        <v>9512</v>
+      </c>
+      <c r="D12" s="5">
         <v>5</v>
       </c>
-      <c r="D12" s="4">
-        <v>9512</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="0"/>
+      <c r="E12" s="6">
+        <f>B12/3</f>
         <v>3170.6666666666665</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <f>F11*4</f>
         <v>1024</v>
       </c>
       <c r="G12" s="7">
-        <f>LOG(D12,4)</f>
+        <f>LOG(B12,4)</f>
         <v>6.6077664998728283</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <f>LOG(F12,4)</f>
         <v>5</v>
       </c>
-      <c r="I12" s="6">
-        <f>D12/F12</f>
+      <c r="I12" s="8">
+        <f>B12/F12</f>
         <v>9.2890625</v>
       </c>
+      <c r="J12" s="5"/>
       <c r="K12">
         <v>5</v>
       </c>
@@ -3041,16 +7769,16 @@
       <c r="M12">
         <v>243</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="1"/>
+      <c r="N12" s="3">
+        <f>LOG(L12,3)</f>
+        <v>6.0462520489555054</v>
+      </c>
+      <c r="O12">
+        <f>LOG(M12,3)</f>
         <v>4.9999999999999991</v>
       </c>
-      <c r="O12" s="3">
-        <f t="shared" si="2"/>
-        <v>6.0462520489555054</v>
-      </c>
       <c r="P12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.1563786008230452</v>
       </c>
       <c r="R12">
@@ -3062,46 +7790,47 @@
       <c r="T12">
         <v>1024</v>
       </c>
-      <c r="U12">
-        <f t="shared" si="4"/>
+      <c r="U12" s="3">
+        <f>LOG(S12,2)</f>
+        <v>11.635718120331049</v>
+      </c>
+      <c r="V12">
+        <f>LOG(T12,2)</f>
         <v>10</v>
       </c>
-      <c r="V12" s="3">
-        <f t="shared" si="5"/>
-        <v>11.635718120331049</v>
-      </c>
       <c r="W12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3.107421875</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="C13" s="8">
+      <c r="B13" s="6">
+        <v>40531</v>
+      </c>
+      <c r="D13" s="5">
         <v>6</v>
       </c>
-      <c r="D13" s="4">
-        <v>40531</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
+      <c r="E13" s="6">
+        <f>B13/3</f>
         <v>13510.333333333334</v>
       </c>
-      <c r="F13">
-        <f t="shared" ref="F13:F15" si="7">F12*4</f>
+      <c r="F13" s="5">
+        <f t="shared" ref="F13:F15" si="2">F12*4</f>
         <v>4096</v>
       </c>
       <c r="G13" s="7">
-        <f>LOG(D13,4)</f>
+        <f>LOG(B13,4)</f>
         <v>7.6533690751138241</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <f>LOG(F13,4)</f>
         <v>6</v>
       </c>
-      <c r="I13" s="6">
-        <f>D13/F13</f>
+      <c r="I13" s="8">
+        <f>B13/F13</f>
         <v>9.895263671875</v>
       </c>
+      <c r="J13" s="5"/>
       <c r="K13">
         <v>6</v>
       </c>
@@ -3111,16 +7840,16 @@
       <c r="M13">
         <v>729</v>
       </c>
-      <c r="N13">
-        <f t="shared" si="1"/>
+      <c r="N13" s="3">
+        <f>LOG(L13,3)</f>
+        <v>7.1602502576984746</v>
+      </c>
+      <c r="O13">
+        <f>LOG(M13,3)</f>
         <v>6</v>
       </c>
-      <c r="O13" s="3">
-        <f t="shared" si="2"/>
-        <v>7.1602502576984746</v>
-      </c>
       <c r="P13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.5775034293552812</v>
       </c>
       <c r="R13">
@@ -3132,46 +7861,47 @@
       <c r="T13">
         <v>4096</v>
       </c>
-      <c r="U13">
-        <f t="shared" si="4"/>
+      <c r="U13" s="3">
+        <f>LOG(S13,2)</f>
+        <v>13.655307101510479</v>
+      </c>
+      <c r="V13">
+        <f>LOG(T13,2)</f>
         <v>12</v>
       </c>
-      <c r="V13" s="3">
-        <f t="shared" si="5"/>
-        <v>13.655307101510479</v>
-      </c>
       <c r="W13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3.14990234375</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="C14" s="8">
+      <c r="B14" s="5">
+        <v>174195</v>
+      </c>
+      <c r="D14" s="5">
         <v>7</v>
       </c>
-      <c r="D14">
-        <v>174195</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
+      <c r="E14" s="6">
+        <f>B14/3</f>
         <v>58065</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <f>49152/3</f>
         <v>16384</v>
       </c>
       <c r="G14" s="7">
-        <f>LOG(D14,4)</f>
+        <f>LOG(B14,4)</f>
         <v>8.7051718443109927</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <f>LOG(F14,4)</f>
         <v>7</v>
       </c>
-      <c r="I14" s="6">
-        <f>D14/F14</f>
+      <c r="I14" s="8">
+        <f>B14/F14</f>
         <v>10.63201904296875</v>
       </c>
+      <c r="J14" s="5"/>
       <c r="K14">
         <v>7</v>
       </c>
@@ -3181,16 +7911,16 @@
       <c r="M14">
         <v>2187</v>
       </c>
-      <c r="N14">
-        <f t="shared" si="1"/>
+      <c r="N14" s="3">
+        <f>LOG(L14,3)</f>
+        <v>8.1105189412438996</v>
+      </c>
+      <c r="O14">
+        <f>LOG(M14,3)</f>
         <v>7</v>
       </c>
-      <c r="O14" s="3">
-        <f t="shared" si="2"/>
-        <v>8.1105189412438996</v>
-      </c>
       <c r="P14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.3872885230909922</v>
       </c>
       <c r="R14">
@@ -3202,46 +7932,47 @@
       <c r="T14">
         <v>16384</v>
       </c>
-      <c r="U14">
-        <f t="shared" si="4"/>
+      <c r="U14" s="3">
+        <f>LOG(S14,2)</f>
+        <v>15.630523101042346</v>
+      </c>
+      <c r="V14">
+        <f>LOG(T14,2)</f>
         <v>14</v>
       </c>
-      <c r="V14" s="3">
-        <f t="shared" si="5"/>
-        <v>15.630523101042346</v>
-      </c>
       <c r="W14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3.09625244140625</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="C15" s="8">
+      <c r="B15" s="5">
+        <v>629783</v>
+      </c>
+      <c r="D15" s="5">
         <v>8</v>
       </c>
-      <c r="D15">
-        <v>629783</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
+      <c r="E15" s="6">
+        <f>B15/3</f>
         <v>209927.66666666666</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="7"/>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
         <v>65536</v>
       </c>
       <c r="G15" s="7">
-        <f>LOG(D15,4)</f>
+        <f>LOG(B15,4)</f>
         <v>9.6322476445778769</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <f>LOG(F15,4)</f>
         <v>8</v>
       </c>
-      <c r="I15" s="6">
-        <f>D15/F15</f>
+      <c r="I15" s="8">
+        <f>B15/F15</f>
         <v>9.6097259521484375</v>
       </c>
+      <c r="J15" s="5"/>
       <c r="K15">
         <v>8</v>
       </c>
@@ -3251,16 +7982,16 @@
       <c r="M15">
         <v>6561</v>
       </c>
-      <c r="N15">
-        <f t="shared" si="1"/>
+      <c r="N15" s="3">
+        <f>LOG(L15,3)</f>
+        <v>9.0880867848916491</v>
+      </c>
+      <c r="O15">
+        <f>LOG(M15,3)</f>
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <f t="shared" si="2"/>
-        <v>9.0880867848916491</v>
-      </c>
       <c r="P15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.304831580551745</v>
       </c>
       <c r="V15" s="3"/>
@@ -3269,5 +8000,8 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Portfolio/effizienz_tabelle.xlsx
+++ b/Portfolio/effizienz_tabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwein\Documents\GitHub\EFI\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202DD260-7E2C-4ABF-BF2A-6D8EEBA09610}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B303BA-36C8-4116-8C1B-7D06D7EA872B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{362BBB06-4FA3-40E8-AF72-36A04FA32FD8}"/>
   </bookViews>
@@ -146,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -159,18 +159,7 @@
         <color theme="4"/>
       </left>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -179,9 +168,7 @@
       <right style="thin">
         <color theme="4"/>
       </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -201,13 +188,87 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2780,7 +2841,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>log3(Laufzeit) ms</a:t>
+                  <a:t>log2(Laufzeit) ms</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6956,22 +7017,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C33B9CC4-C717-4D29-A481-E487A438D56C}" name="Tabelle1" displayName="Tabelle1" ref="D6:I15" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C33B9CC4-C717-4D29-A481-E487A438D56C}" name="Tabelle1" displayName="Tabelle1" ref="D6:I15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
   <autoFilter ref="D6:I15" xr:uid="{275AC1F7-5BAE-4DA9-AAEE-127CCEDF4441}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5CA0C140-2207-4F75-8A22-73EBEB4EC328}" name="Stufe" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{E4B6A9E5-F1F8-4B9D-9728-E5AAC10B3DE9}" name="Laufzeit (ms)" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{5CA0C140-2207-4F75-8A22-73EBEB4EC328}" name="Stufe" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{E4B6A9E5-F1F8-4B9D-9728-E5AAC10B3DE9}" name="Laufzeit (ms)" dataDxfId="14">
       <calculatedColumnFormula>B7/3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0BCE7942-06EB-4612-982B-4F8459B77CA3}" name="s" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{D417C1ED-649B-4CB6-942A-DE5B0BE7A5BB}" name="log4(Laufzeit)" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{0BCE7942-06EB-4612-982B-4F8459B77CA3}" name="s" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{D417C1ED-649B-4CB6-942A-DE5B0BE7A5BB}" name="log4(Laufzeit)" dataDxfId="12">
       <calculatedColumnFormula>LOG(B7,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{ECDA52CB-8802-49DA-AAB6-207F9F3A65A7}" name="log4(s)" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{ECDA52CB-8802-49DA-AAB6-207F9F3A65A7}" name="log4(s)" dataDxfId="11">
       <calculatedColumnFormula>LOG(F7,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C2852E43-C94B-4B97-85B6-62E8E577E79D}" name="Laufzeit/s" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{C2852E43-C94B-4B97-85B6-62E8E577E79D}" name="Laufzeit/s" dataDxfId="10">
       <calculatedColumnFormula>B7/F7</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41AC0E2-8597-499B-9528-8499C49D84C1}" name="Tabelle2" displayName="Tabelle2" ref="K6:P15" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="7">
+  <autoFilter ref="K6:P15" xr:uid="{0AC84C4A-9B1A-4A4D-BD11-7978D1F2D895}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1B5CE252-AD37-42F7-B2CB-E1B6318ACF7A}" name="Stufe"/>
+    <tableColumn id="2" xr3:uid="{BDF4F920-D7AA-4078-8580-26EBF6D811C7}" name="Laufzeit (ms)"/>
+    <tableColumn id="3" xr3:uid="{2A07CD50-D572-43C7-B67D-C51920815034}" name="s"/>
+    <tableColumn id="4" xr3:uid="{9B98A36C-7332-481D-B798-665B142D1A29}" name="log3(Laufzeit)" dataDxfId="6">
+      <calculatedColumnFormula>LOG(L7,3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{09A4C56E-B3F4-451A-BE30-A6192FE9D9C0}" name="log3(s)">
+      <calculatedColumnFormula>LOG(M7,3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{03981346-7ACF-47B7-A30D-94FBC1934D76}" name="Laufzeit/s" dataDxfId="5">
+      <calculatedColumnFormula>L7/M7</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5B4FD83C-EBFB-4B38-B4D5-7CB2FF10F2BA}" name="Tabelle3" displayName="Tabelle3" ref="R6:W14" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="3">
+  <autoFilter ref="R6:W14" xr:uid="{DB83292E-D261-4B8A-91C1-A2539C5C9007}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{5F32427B-FC50-4910-AC35-9AD2B07190BB}" name="Stufe"/>
+    <tableColumn id="2" xr3:uid="{E194D58E-9CDD-4117-830D-0C9D78A7E4EE}" name="Laufzeit (ms)"/>
+    <tableColumn id="3" xr3:uid="{67C0BFC0-7438-4ECB-9867-DDF1E790526C}" name="s"/>
+    <tableColumn id="4" xr3:uid="{C92AAD73-96A8-460F-A92D-CF45F77B9C5E}" name="log2(Laufzeit)" dataDxfId="2">
+      <calculatedColumnFormula>LOG(S7,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C349308C-3ABE-4BA5-87D0-3D2C4F8FF90D}" name="log2(s)">
+      <calculatedColumnFormula>LOG(T7,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{CA89E256-DAEB-4E6F-A4F4-CA0CE00DD539}" name="Laufzeit/s" dataDxfId="1">
+      <calculatedColumnFormula>S7/T7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7277,8 +7380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A3CE31-6E04-4DE6-B48E-EE2396E24816}">
   <dimension ref="A2:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="60" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+    <sheetView tabSelected="1" topLeftCell="K16" zoomScale="81" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7288,8 +7391,12 @@
     <col min="7" max="7" width="14.81640625" customWidth="1"/>
     <col min="8" max="8" width="12.7265625" customWidth="1"/>
     <col min="9" max="9" width="11.26953125" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" customWidth="1"/>
-    <col min="14" max="14" width="12.6328125" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" customWidth="1"/>
+    <col min="14" max="14" width="14.1796875" customWidth="1"/>
+    <col min="16" max="16" width="11.08984375" customWidth="1"/>
+    <col min="19" max="19" width="13.7265625" customWidth="1"/>
+    <col min="21" max="21" width="14.1796875" customWidth="1"/>
+    <col min="23" max="23" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -8000,8 +8107,10 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>